--- a/biology/Zoologie/Atractus/Atractus.xlsx
+++ b/biology/Zoologie/Atractus/Atractus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 151 espèces de ce genre se rencontrent en Amérique du Sud et en Amérique centrale[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 151 espèces de ce genre se rencontrent en Amérique du Sud et en Amérique centrale
 </t>
         </is>
       </c>
@@ -542,19 +556,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (22 septembre 2023)[2] :
-Atractus aboiporu Melo-Sampaio et al., 2019[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (22 septembre 2023) :
+Atractus aboiporu Melo-Sampaio et al., 2019
 Atractus acheronius Passos et al., 2009
-Atractus akerios Melo-Sampaio et al., 2021[4]
+Atractus akerios Melo-Sampaio et al., 2021
 Atractus albuquerquei Da Cunha &amp; Do Nascimento, 1983
 Atractus alphonsehogei Da Cunha &amp; Do Nascimento, 1983
 Atractus altagratiae Passos &amp; Fernandes, 2008
 Atractus alytogrammus Köhler &amp; Kieckbusch, 2014
 Atractus andinus Prado, 1944
 Atractus apophis Passos &amp; Lynch, 2010
-Atractus atlas Passos et al., 2018[5]
+Atractus atlas Passos et al., 2018
 Atractus atratus Passos &amp; Lynch, 2010
 Atractus attenuates Myers &amp; Schargel, 2006
 Atractus avernus Passos et al., 2009
@@ -563,22 +579,22 @@
 Atractus biseriatus Prado, 1941
 Atractus bocki Werner, 1909
 Atractus bocourti Boulenger, 1894
-Atractus boimirim Passos et al., 2016[6]
+Atractus boimirim Passos et al., 2016
 Atractus boulengerii Peracca, 1896
 Atractus caete Passos et al., 2010
 Atractus careolepis Köhler &amp; Kieckbusch, 2014
 Atractus carrioni Parker, 1930
 Atractus caxiuana Da Costa Prudente &amp; Santos-Costa, 2006
-Atractus cerberus Arteaga et al., 2017[7]
+Atractus cerberus Arteaga et al., 2017
 Atractus charitoae Silva Haad, 2004
 Atractus chthonius Passos &amp; Lynch, 2010
 Atractus clarki Dunn &amp; Bailey, 1939
 Atractus collaris Peracca, 1897
 Atractus crassicaudatus (Duméril, Bibron &amp; Duméril, 1854)
-Atractus dapsilis Melo-Sampaio et al., 2019[3]
+Atractus dapsilis Melo-Sampaio et al., 2019
 Atractus darienensis Myers, 2003
 Atractus depressiocellus Myers, 2003
-Atractus discovery Arteaga et al., 2022[8]
+Atractus discovery Arteaga et al., 2022
 Atractus duboisi (Boulenger, 1880)
 Atractus duidensis Roze, 1961
 Atractus dunni Savage, 1955
@@ -590,7 +606,7 @@
 Atractus emmeli (Boettger, 1888)
 Atractus eriki Esqueda et al., 2007
 Atractus erythromelas Boulenger, 1903
-Atractus esepe Arteaga et al., 2017[7]
+Atractus esepe Arteaga et al., 2017
 Atractus favae (Filippi, 1840)
 Atractus flammigerus (Boie, 1827)
 Atractus franciscopaivai Silva Haad, 2004
@@ -600,7 +616,7 @@
 Atractus gigas Myers &amp; Schargel, 2006
 Atractus guentheri (Wucherer, 1861)
 Atractus heliobelluomini Silva Haad, 2004
-Atractus heyeri Esqueda &amp; McDiarmid, 2015[9]
+Atractus heyeri Esqueda &amp; McDiarmid, 2015
 Atractus hoogmoedi Prudente &amp; Passos, 2010
 Atractus hostilitractus Myers, 2003
 Atractus imperfectus Myers, 2003
@@ -617,13 +633,13 @@
 Atractus major Boulenger, 1894
 Atractus manizalesensis Prado, 1940
 Atractus mariselae Lancini, 1969
-Atractus marthae Meneses-Pelayo &amp; Passos, 2019[10]
+Atractus marthae Meneses-Pelayo &amp; Passos, 2019
 Atractus matthewi Markezich &amp; Barrio-Amorós, 2004
 Atractus medusa Passos et al., 2009
 Atractus melanogaster Werner, 1916
 Atractus melas Boulenger, 1908
 Atractus meridensis Esqueda &amp; La Marca, 2005
-Atractus michaelsabini Arteaga et al., 2022[8]
+Atractus michaelsabini Arteaga et al., 2022
 Atractus micheleae Esqueda &amp; La Marca, 2005
 Atractus microrhynchus (Cope, 1868)
 Atractus mijaresi Esqueda &amp; La Marca, 2005
@@ -632,7 +648,7 @@
 Atractus multidentatus Passos et al., 2009
 Atractus nasutus Passos et al., 2009
 Atractus natans Hoogmoed &amp; Prudente, 2003
-Atractus nawa Melo-Sampaio et al., 2021[4]
+Atractus nawa Melo-Sampaio et al., 2021
 Atractus nicefori Amaral, 1930
 Atractus nigricauda Schmidt &amp; Walker, 1943
 Atractus nigriventris Amaral, 1933
@@ -643,19 +659,19 @@
 Atractus ochrosetrus Esqueda &amp; La Marca, 2005
 Atractus oculotemporalis Amaral, 1932
 Atractus orcesi Savage, 1955
-Atractus pachacamac Melo-Sampaio et al., 2021[4]
+Atractus pachacamac Melo-Sampaio et al., 2021
 Atractus paisa Passos et al., 2009
 Atractus pamplonensis Amaral, 1937
 Atractus pantostictus Fernandes &amp; Puorto, 1993
 Atractus paraguayensis Werner, 1924
 Atractus paucidens (Despax, 1910)
 Atractus pauciscutatus Schmidt &amp; Walker, 1943
-Atractus paulus Melo-Sampaio &amp; Venegas, 2023[11]
+Atractus paulus Melo-Sampaio &amp; Venegas, 2023
 Atractus peruvianus (Jan, 1862)
 Atractus poeppigi (Jan, 1862)
 Atractus potschi Fernandes, 1995
 Atractus punctiventris Amaral, 1933
-Atractus pyroni Arteaga et al., 2017[7]
+Atractus pyroni Arteaga et al., 2017
 Atractus resplendens Werner, 1901
 Atractus reticulatus (Boulenger, 1885)
 Atractus riveroi Roze, 1961
@@ -669,23 +685,23 @@
 Atractus snethlageae Da Cunha &amp; Do Nascimento, 1983
 Atractus spinalis Passos et al., 2013
 Atractus steyermarki Roze, 1958
-Atractus stygius Passos et al., 2019[12]
+Atractus stygius Passos et al., 2019
 Atractus surucucu Prudente, 2008
 Atractus tamaensis Esqueda &amp; La Marca, 2005
 Atractus tamessari Kok, 2006
 Atractus taphorni Schargel &amp; García-Pérez, 2002
-Atractus tartarus Passos et al., 2016[6]
+Atractus tartarus Passos et al., 2016
 Atractus thalesdelemai Passos et al., 2005
 Atractus titanicus Passos et al., 2009
 Atractus torquatus (Duméril, Bibron &amp; Duméril, 1854)
 Atractus touzeti Schargel et al., 2013
-Atractus trefauti Melo-Sampaio et al., 2019[3]
+Atractus trefauti Melo-Sampaio et al., 2019
 Atractus trihedrurus Amaral, 1926
 Atractus trilineatus Wagler, 1828
 Atractus trivittatus Amaral, 1933
 Atractus turikensis Barros, 2000
 Atractus typhon Passos et al., 2009
-Atractus ukupacha Melo-Sampaio et al., 2021[4]
+Atractus ukupacha Melo-Sampaio et al., 2021
 Atractus variegatus Prado, 1942
 Atractus ventrimaculatus Boulenger, 1905
 Atractus vertebralis Boulenger, 1904
@@ -694,7 +710,7 @@
 Atractus wagleri Prado, 1945
 Atractus werneri Peracca, 1914
 Atractus zebrinus (Jan, 1862)
-Atractus zgap Arteaga et al., 2022[8]
+Atractus zgap Arteaga et al., 2022
 Atractus zidoki Gasc &amp; Rodrigues, 1979
 </t>
         </is>
@@ -724,7 +740,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wagler, 1828 : Auszüge aus einem Systema Amphibiorum. Isis von Oken, vol. 21, p. 740-744 (texte intégral).</t>
         </is>
